--- a/chlasm_ci/dev_doc/opcodes.xlsx
+++ b/chlasm_ci/dev_doc/opcodes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniele\Desktop\BW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniele\git\blackandwhite\chlasm_ci\dev_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E00BC3-80BB-4F60-857A-EE8C7912BBDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43BF96E-CC79-403A-A3B3-37A549F30640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="12" yWindow="12" windowWidth="11580" windowHeight="12396" xr2:uid="{E29C4751-89E7-4AE1-B836-4F694F56EA74}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E29C4751-89E7-4AE1-B836-4F694F56EA74}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -365,6 +365,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -372,10 +376,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -782,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06615C30-458A-42D5-A3D7-C0D4326A705D}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -797,21 +797,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="10" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -853,7 +853,7 @@
       <c r="M2" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="9" t="s">
         <v>60</v>
       </c>
     </row>
@@ -879,7 +879,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="13"/>
+      <c r="N3" s="10"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
@@ -905,7 +905,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="13"/>
+      <c r="N4" s="10"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
@@ -941,7 +941,7 @@
       <c r="M5" s="1">
         <v>1.2</v>
       </c>
-      <c r="N5" s="13"/>
+      <c r="N5" s="10"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
@@ -962,7 +962,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1">
@@ -971,7 +971,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="13"/>
+      <c r="N6" s="10"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
@@ -997,7 +997,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="13"/>
+      <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
@@ -1023,7 +1023,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="13"/>
+      <c r="N8" s="10"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
@@ -1049,7 +1049,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="13"/>
+      <c r="N9" s="10"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
@@ -1073,7 +1073,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="13"/>
+      <c r="N10" s="10"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
@@ -1097,7 +1097,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="13"/>
+      <c r="N11" s="10"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
@@ -1121,7 +1121,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="13"/>
+      <c r="N12" s="10"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
@@ -1145,7 +1145,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="13"/>
+      <c r="N13" s="10"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
@@ -1169,7 +1169,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="13"/>
+      <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
@@ -1193,7 +1193,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="13"/>
+      <c r="N15" s="10"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
@@ -1217,7 +1217,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="13"/>
+      <c r="N16" s="10"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
@@ -1241,7 +1241,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="13"/>
+      <c r="N17" s="10"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
@@ -1265,7 +1265,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="13"/>
+      <c r="N18" s="10"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
@@ -1289,7 +1289,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="13"/>
+      <c r="N19" s="10"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
@@ -1313,7 +1313,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="13"/>
+      <c r="N20" s="10"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
@@ -1337,7 +1337,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="13"/>
+      <c r="N21" s="10"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
@@ -1361,7 +1361,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="13"/>
+      <c r="N22" s="10"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
@@ -1387,7 +1387,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="13"/>
+      <c r="N23" s="10"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
@@ -1411,7 +1411,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="13"/>
+      <c r="N24" s="10"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
@@ -1435,7 +1435,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="13"/>
+      <c r="N25" s="10"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
@@ -1467,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="M26" s="1"/>
-      <c r="N26" s="13"/>
+      <c r="N26" s="10"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
@@ -1493,7 +1493,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="13"/>
+      <c r="N27" s="10"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
@@ -1519,7 +1519,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="13"/>
+      <c r="N28" s="10"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
@@ -1539,7 +1539,7 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="13"/>
+      <c r="N29" s="10"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
@@ -1563,7 +1563,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="13"/>
+      <c r="N30" s="10"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
@@ -1587,7 +1587,7 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="13"/>
+      <c r="N31" s="10"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
@@ -1611,7 +1611,7 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="13"/>
+      <c r="N32" s="10"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
@@ -1635,7 +1635,7 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="13"/>
+      <c r="N33" s="10"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
@@ -1655,7 +1655,7 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-      <c r="N34" s="13"/>
+      <c r="N34" s="10"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
@@ -1679,7 +1679,7 @@
       <c r="M35" s="1">
         <v>2</v>
       </c>
-      <c r="N35" s="13"/>
+      <c r="N35" s="10"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
@@ -1703,7 +1703,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
-      <c r="N36" s="13"/>
+      <c r="N36" s="10"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
@@ -1729,7 +1729,7 @@
       <c r="M37" s="1">
         <v>1.2</v>
       </c>
-      <c r="N37" s="13"/>
+      <c r="N37" s="10"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
@@ -1753,7 +1753,7 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
-      <c r="N38" s="13"/>
+      <c r="N38" s="10"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
@@ -1773,7 +1773,7 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
-      <c r="N39" s="13"/>
+      <c r="N39" s="10"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
@@ -1797,7 +1797,7 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
-      <c r="N40" s="13"/>
+      <c r="N40" s="10"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
@@ -1821,7 +1821,7 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
-      <c r="N41" s="13"/>
+      <c r="N41" s="10"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
@@ -1845,7 +1845,7 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
-      <c r="N42" s="13" t="s">
+      <c r="N42" s="10" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
-      <c r="N43" s="13"/>
+      <c r="N43" s="10"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
@@ -1887,7 +1887,7 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
-      <c r="N44" s="13"/>
+      <c r="N44" s="10"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
@@ -1911,7 +1911,7 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
-      <c r="N45" s="13" t="s">
+      <c r="N45" s="10" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
-      <c r="N46" s="13"/>
+      <c r="N46" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
